--- a/data/trans_dic/P10_3-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P10_3-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no tiene acceso a internet</t>
+          <t>Población que no tiene acceso a internet (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,67</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -686,27 +687,27 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>0,81%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0,44%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1,08%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0,57%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>0,94%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,44%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,06%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,57%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>1,0%</t>
         </is>
       </c>
     </row>
@@ -719,27 +720,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,59</t>
+          <t>0,0; 3,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,45</t>
+          <t>0,0; 4,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,24</t>
+          <t>0,0; 2,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,73</t>
+          <t>0,0; 3,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,82</t>
+          <t>0,0; 2,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -766,7 +767,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -776,17 +777,17 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>1,11%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 8,05</t>
+          <t>0,39; 7,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,58</t>
+          <t>0,38; 3,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,23</t>
+          <t>0,0; 2,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,19; 3,95</t>
+          <t>0,19; 3,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,27</t>
+          <t>0,51; 2,3</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -856,7 +857,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -866,7 +867,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>2,73%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,57</t>
+          <t>0,6; 3,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,23; 11,77</t>
+          <t>1,21; 12,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,78; 3,68</t>
+          <t>0,78; 3,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,58; 3,25</t>
+          <t>0,63; 3,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,95; 2,91</t>
+          <t>0,88; 2,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,2; 5,77</t>
+          <t>1,35; 6,57</t>
         </is>
       </c>
     </row>
@@ -926,17 +927,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -946,7 +947,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,81%</t>
+          <t>6,92%</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,53; 13,66</t>
+          <t>4,47; 13,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,3; 17,16</t>
+          <t>5,58; 18,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,2; 12,19</t>
+          <t>5,09; 12,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,23; 7,66</t>
+          <t>2,3; 7,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,5; 10,86</t>
+          <t>5,78; 11,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,46; 11,24</t>
+          <t>4,75; 11,27</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1007,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>20,94%</t>
+          <t>18,93%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1016,7 +1017,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>29,82%</t>
+          <t>28,15%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1026,7 +1027,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>25,97%</t>
+          <t>24,17%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>17,8; 30,41</t>
+          <t>19,63; 32,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,7; 30,63</t>
+          <t>13,17; 27,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>28,53; 39,72</t>
+          <t>28,5; 39,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>23,79; 36,77</t>
+          <t>22,23; 34,5</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>26,07; 34,2</t>
+          <t>25,93; 34,5</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>20,99; 31,55</t>
+          <t>19,28; 29,39</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -1096,7 +1097,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1106,7 +1107,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>6,19%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,6; 7,49</t>
+          <t>4,65; 7,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,15; 8,29</t>
+          <t>4,05; 7,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,15; 9,98</t>
+          <t>7,23; 9,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,67; 9,02</t>
+          <t>5,46; 8,48</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,16; 8,24</t>
+          <t>6,34; 8,23</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,41; 8,11</t>
+          <t>5,12; 7,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1164,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no tiene acceso a internet (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>3881</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4659</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2307</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>5612</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>6188</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>10271</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 18074</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 24034</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 11786</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 16744</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 23568</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2741; 29831</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>15001</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>10514</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>5022</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>15001</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>15537</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2646; 47721</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2588; 26357</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 17138</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2651; 53615</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>7152; 32203</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>9968</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>25308</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>12947</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>11113</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>22915</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>36421</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>3857; 21488</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>7859; 81120</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>5490; 26238</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>4321; 26132</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>11741; 40143</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>17975; 87595</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>39356</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>45912</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>40620</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>23635</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>79976</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>69547</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>22862; 69724</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>27618; 90737</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>25582; 61533</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>11701; 39889</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>58614; 113825</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>47682; 113143</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>135353</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>103196</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>249426</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>202055</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>384779</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>305252</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>107347; 175841</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>71824; 149690</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>208371; 289829</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>159532; 247642</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>331330; 440865</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>243449; 371220</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>202.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>203559</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>189589</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>305300</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>247438</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>508860</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>437027</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>160509; 261286</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>139552; 259001</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>261238; 360224</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>197147; 306265</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>447654; 581397</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>361240; 526419</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>